--- a/stock_historical_data/1wk/BAJAJST.BO.xlsx
+++ b/stock_historical_data/1wk/BAJAJST.BO.xlsx
@@ -61099,7 +61099,9 @@
       <c r="P1144" t="n">
         <v>0</v>
       </c>
-      <c r="Q1144" t="inlineStr"/>
+      <c r="Q1144" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/BAJAJST.BO.xlsx
+++ b/stock_historical_data/1wk/BAJAJST.BO.xlsx
@@ -64589,7 +64589,9 @@
       <c r="Q1145" t="n">
         <v>0</v>
       </c>
-      <c r="R1145" t="inlineStr"/>
+      <c r="R1145" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/BAJAJST.BO.xlsx
+++ b/stock_historical_data/1wk/BAJAJST.BO.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1145"/>
+  <dimension ref="A1:R1147"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -64593,6 +64593,114 @@
         <v>0</v>
       </c>
     </row>
+    <row r="1146">
+      <c r="A1146" s="2" t="n">
+        <v>45460</v>
+      </c>
+      <c r="B1146" t="n">
+        <v>1490</v>
+      </c>
+      <c r="C1146" t="n">
+        <v>1510</v>
+      </c>
+      <c r="D1146" t="n">
+        <v>1450</v>
+      </c>
+      <c r="E1146" t="n">
+        <v>1451.75</v>
+      </c>
+      <c r="F1146" t="n">
+        <v>1451.75</v>
+      </c>
+      <c r="G1146" t="n">
+        <v>21290</v>
+      </c>
+      <c r="H1146" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1146" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1146" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1146" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1146" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1146" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1146" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1146" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1146" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1146" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1146" t="inlineStr"/>
+    </row>
+    <row r="1147">
+      <c r="A1147" s="2" t="n">
+        <v>45467</v>
+      </c>
+      <c r="B1147" t="n">
+        <v>1476.849975585938</v>
+      </c>
+      <c r="C1147" t="n">
+        <v>1665.900024414062</v>
+      </c>
+      <c r="D1147" t="n">
+        <v>1450.099975585938</v>
+      </c>
+      <c r="E1147" t="n">
+        <v>1627.75</v>
+      </c>
+      <c r="F1147" t="n">
+        <v>1627.75</v>
+      </c>
+      <c r="G1147" t="n">
+        <v>68420</v>
+      </c>
+      <c r="H1147" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1147" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1147" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1147" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1147" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1147" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1147" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1147" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1147" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1147" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1147" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_historical_data/1wk/BAJAJST.BO.xlsx
+++ b/stock_historical_data/1wk/BAJAJST.BO.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1147"/>
+  <dimension ref="A1:R1156"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3939,7 +3939,7 @@
         <v>0</v>
       </c>
       <c r="Q62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R62" t="n">
         <v>0</v>
@@ -64645,7 +64645,9 @@
       <c r="Q1146" t="n">
         <v>0</v>
       </c>
-      <c r="R1146" t="inlineStr"/>
+      <c r="R1146" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1147">
       <c r="A1147" s="2" t="n">
@@ -64691,7 +64693,7 @@
         <v>26</v>
       </c>
       <c r="O1147" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1147" t="n">
         <v>0</v>
@@ -64699,7 +64701,477 @@
       <c r="Q1147" t="n">
         <v>0</v>
       </c>
-      <c r="R1147" t="inlineStr"/>
+      <c r="R1147" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1148">
+      <c r="A1148" s="2" t="n">
+        <v>45656</v>
+      </c>
+      <c r="B1148" t="n">
+        <v>800</v>
+      </c>
+      <c r="C1148" t="n">
+        <v>920</v>
+      </c>
+      <c r="D1148" t="n">
+        <v>790</v>
+      </c>
+      <c r="E1148" t="n">
+        <v>890.5</v>
+      </c>
+      <c r="F1148" t="inlineStr"/>
+      <c r="G1148" t="n">
+        <v>244638</v>
+      </c>
+      <c r="H1148" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1148" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1148" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1148" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1148" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1148" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1148" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1148" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1148" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1148" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1148" t="inlineStr"/>
+    </row>
+    <row r="1149">
+      <c r="A1149" s="2" t="n">
+        <v>45663</v>
+      </c>
+      <c r="B1149" t="n">
+        <v>890</v>
+      </c>
+      <c r="C1149" t="n">
+        <v>912.9500122070312</v>
+      </c>
+      <c r="D1149" t="n">
+        <v>790.25</v>
+      </c>
+      <c r="E1149" t="n">
+        <v>809.9000244140625</v>
+      </c>
+      <c r="F1149" t="inlineStr"/>
+      <c r="G1149" t="n">
+        <v>124030</v>
+      </c>
+      <c r="H1149" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1149" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1149" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1149" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1149" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1149" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1149" t="n">
+        <v>2</v>
+      </c>
+      <c r="O1149" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1149" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1149" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1149" t="inlineStr"/>
+    </row>
+    <row r="1150">
+      <c r="A1150" s="2" t="n">
+        <v>45670</v>
+      </c>
+      <c r="B1150" t="n">
+        <v>795</v>
+      </c>
+      <c r="C1150" t="n">
+        <v>824.4000244140625</v>
+      </c>
+      <c r="D1150" t="n">
+        <v>765</v>
+      </c>
+      <c r="E1150" t="n">
+        <v>822.0999755859375</v>
+      </c>
+      <c r="F1150" t="inlineStr"/>
+      <c r="G1150" t="n">
+        <v>65946</v>
+      </c>
+      <c r="H1150" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1150" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1150" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1150" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1150" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1150" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1150" t="n">
+        <v>3</v>
+      </c>
+      <c r="O1150" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1150" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1150" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1150" t="inlineStr"/>
+    </row>
+    <row r="1151">
+      <c r="A1151" s="2" t="n">
+        <v>45677</v>
+      </c>
+      <c r="B1151" t="n">
+        <v>829.9000244140625</v>
+      </c>
+      <c r="C1151" t="n">
+        <v>869.9000244140625</v>
+      </c>
+      <c r="D1151" t="n">
+        <v>803.25</v>
+      </c>
+      <c r="E1151" t="n">
+        <v>818.2999877929688</v>
+      </c>
+      <c r="F1151" t="inlineStr"/>
+      <c r="G1151" t="n">
+        <v>64130</v>
+      </c>
+      <c r="H1151" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1151" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1151" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1151" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1151" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1151" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1151" t="n">
+        <v>4</v>
+      </c>
+      <c r="O1151" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1151" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1151" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1151" t="inlineStr"/>
+    </row>
+    <row r="1152">
+      <c r="A1152" s="2" t="n">
+        <v>45684</v>
+      </c>
+      <c r="B1152" t="n">
+        <v>818.2999877929688</v>
+      </c>
+      <c r="C1152" t="n">
+        <v>830</v>
+      </c>
+      <c r="D1152" t="n">
+        <v>722.25</v>
+      </c>
+      <c r="E1152" t="n">
+        <v>797.4500122070312</v>
+      </c>
+      <c r="F1152" t="inlineStr"/>
+      <c r="G1152" t="n">
+        <v>83598</v>
+      </c>
+      <c r="H1152" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1152" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1152" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1152" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1152" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1152" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1152" t="n">
+        <v>5</v>
+      </c>
+      <c r="O1152" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1152" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1152" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1152" t="inlineStr"/>
+    </row>
+    <row r="1153">
+      <c r="A1153" s="2" t="n">
+        <v>45691</v>
+      </c>
+      <c r="B1153" t="n">
+        <v>796</v>
+      </c>
+      <c r="C1153" t="n">
+        <v>815</v>
+      </c>
+      <c r="D1153" t="n">
+        <v>705</v>
+      </c>
+      <c r="E1153" t="n">
+        <v>739.0499877929688</v>
+      </c>
+      <c r="F1153" t="inlineStr"/>
+      <c r="G1153" t="n">
+        <v>91937</v>
+      </c>
+      <c r="H1153" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1153" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1153" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1153" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1153" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1153" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1153" t="n">
+        <v>6</v>
+      </c>
+      <c r="O1153" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1153" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1153" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1153" t="inlineStr"/>
+    </row>
+    <row r="1154">
+      <c r="A1154" s="2" t="n">
+        <v>45698</v>
+      </c>
+      <c r="B1154" t="n">
+        <v>739</v>
+      </c>
+      <c r="C1154" t="n">
+        <v>747.4000244140625</v>
+      </c>
+      <c r="D1154" t="n">
+        <v>640</v>
+      </c>
+      <c r="E1154" t="n">
+        <v>662</v>
+      </c>
+      <c r="F1154" t="inlineStr"/>
+      <c r="G1154" t="n">
+        <v>89892</v>
+      </c>
+      <c r="H1154" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1154" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1154" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1154" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1154" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1154" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1154" t="n">
+        <v>7</v>
+      </c>
+      <c r="O1154" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1154" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1154" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1154" t="inlineStr"/>
+    </row>
+    <row r="1155">
+      <c r="A1155" s="2" t="n">
+        <v>45705</v>
+      </c>
+      <c r="B1155" t="n">
+        <v>662</v>
+      </c>
+      <c r="C1155" t="n">
+        <v>730</v>
+      </c>
+      <c r="D1155" t="n">
+        <v>554.4500122070312</v>
+      </c>
+      <c r="E1155" t="n">
+        <v>719.75</v>
+      </c>
+      <c r="F1155" t="inlineStr"/>
+      <c r="G1155" t="n">
+        <v>126372</v>
+      </c>
+      <c r="H1155" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1155" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1155" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1155" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1155" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1155" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1155" t="n">
+        <v>8</v>
+      </c>
+      <c r="O1155" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1155" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1155" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1155" t="inlineStr"/>
+    </row>
+    <row r="1156">
+      <c r="A1156" s="2" t="n">
+        <v>45712</v>
+      </c>
+      <c r="B1156" t="n">
+        <v>699.7000122070312</v>
+      </c>
+      <c r="C1156" t="n">
+        <v>709.9500122070312</v>
+      </c>
+      <c r="D1156" t="n">
+        <v>602.0999755859375</v>
+      </c>
+      <c r="E1156" t="n">
+        <v>620</v>
+      </c>
+      <c r="F1156" t="inlineStr"/>
+      <c r="G1156" t="n">
+        <v>60235</v>
+      </c>
+      <c r="H1156" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1156" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1156" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1156" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1156" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1156" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1156" t="n">
+        <v>9</v>
+      </c>
+      <c r="O1156" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1156" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1156" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1156" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/BAJAJST.BO.xlsx
+++ b/stock_historical_data/1wk/BAJAJST.BO.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1156"/>
+  <dimension ref="A1:R1160"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -64755,7 +64755,9 @@
       <c r="Q1148" t="n">
         <v>0</v>
       </c>
-      <c r="R1148" t="inlineStr"/>
+      <c r="R1148" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1149">
       <c r="A1149" s="2" t="n">
@@ -64807,7 +64809,9 @@
       <c r="Q1149" t="n">
         <v>0</v>
       </c>
-      <c r="R1149" t="inlineStr"/>
+      <c r="R1149" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1150">
       <c r="A1150" s="2" t="n">
@@ -64859,7 +64863,9 @@
       <c r="Q1150" t="n">
         <v>0</v>
       </c>
-      <c r="R1150" t="inlineStr"/>
+      <c r="R1150" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1151">
       <c r="A1151" s="2" t="n">
@@ -64911,7 +64917,9 @@
       <c r="Q1151" t="n">
         <v>0</v>
       </c>
-      <c r="R1151" t="inlineStr"/>
+      <c r="R1151" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1152">
       <c r="A1152" s="2" t="n">
@@ -64963,7 +64971,9 @@
       <c r="Q1152" t="n">
         <v>0</v>
       </c>
-      <c r="R1152" t="inlineStr"/>
+      <c r="R1152" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1153">
       <c r="A1153" s="2" t="n">
@@ -65015,7 +65025,9 @@
       <c r="Q1153" t="n">
         <v>2</v>
       </c>
-      <c r="R1153" t="inlineStr"/>
+      <c r="R1153" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1154">
       <c r="A1154" s="2" t="n">
@@ -65067,7 +65079,9 @@
       <c r="Q1154" t="n">
         <v>0</v>
       </c>
-      <c r="R1154" t="inlineStr"/>
+      <c r="R1154" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1155">
       <c r="A1155" s="2" t="n">
@@ -65111,7 +65125,7 @@
         <v>8</v>
       </c>
       <c r="O1155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1155" t="n">
         <v>0</v>
@@ -65119,7 +65133,9 @@
       <c r="Q1155" t="n">
         <v>0</v>
       </c>
-      <c r="R1155" t="inlineStr"/>
+      <c r="R1155" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1156">
       <c r="A1156" s="2" t="n">
@@ -65171,7 +65187,217 @@
       <c r="Q1156" t="n">
         <v>0</v>
       </c>
-      <c r="R1156" t="inlineStr"/>
+      <c r="R1156" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1157">
+      <c r="A1157" s="2" t="n">
+        <v>45719</v>
+      </c>
+      <c r="B1157" t="n">
+        <v>619</v>
+      </c>
+      <c r="C1157" t="n">
+        <v>737</v>
+      </c>
+      <c r="D1157" t="n">
+        <v>587.5999755859375</v>
+      </c>
+      <c r="E1157" t="n">
+        <v>714.3499755859375</v>
+      </c>
+      <c r="F1157" t="inlineStr"/>
+      <c r="G1157" t="n">
+        <v>108639</v>
+      </c>
+      <c r="H1157" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1157" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1157" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1157" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1157" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1157" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1157" t="n">
+        <v>10</v>
+      </c>
+      <c r="O1157" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1157" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1157" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1157" t="inlineStr"/>
+    </row>
+    <row r="1158">
+      <c r="A1158" s="2" t="n">
+        <v>45726</v>
+      </c>
+      <c r="B1158" t="n">
+        <v>714.3499755859375</v>
+      </c>
+      <c r="C1158" t="n">
+        <v>728</v>
+      </c>
+      <c r="D1158" t="n">
+        <v>637</v>
+      </c>
+      <c r="E1158" t="n">
+        <v>663.5</v>
+      </c>
+      <c r="F1158" t="inlineStr"/>
+      <c r="G1158" t="n">
+        <v>39126</v>
+      </c>
+      <c r="H1158" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1158" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1158" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1158" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1158" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1158" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1158" t="n">
+        <v>11</v>
+      </c>
+      <c r="O1158" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1158" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1158" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1158" t="inlineStr"/>
+    </row>
+    <row r="1159">
+      <c r="A1159" s="2" t="n">
+        <v>45733</v>
+      </c>
+      <c r="B1159" t="n">
+        <v>666</v>
+      </c>
+      <c r="C1159" t="n">
+        <v>799</v>
+      </c>
+      <c r="D1159" t="n">
+        <v>660</v>
+      </c>
+      <c r="E1159" t="n">
+        <v>760.0499877929688</v>
+      </c>
+      <c r="F1159" t="inlineStr"/>
+      <c r="G1159" t="n">
+        <v>102884</v>
+      </c>
+      <c r="H1159" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1159" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1159" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1159" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1159" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1159" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1159" t="n">
+        <v>12</v>
+      </c>
+      <c r="O1159" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1159" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1159" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1159" t="inlineStr"/>
+    </row>
+    <row r="1160">
+      <c r="A1160" s="2" t="n">
+        <v>45740</v>
+      </c>
+      <c r="B1160" t="n">
+        <v>756</v>
+      </c>
+      <c r="C1160" t="n">
+        <v>786</v>
+      </c>
+      <c r="D1160" t="n">
+        <v>695</v>
+      </c>
+      <c r="E1160" t="n">
+        <v>707.2999877929688</v>
+      </c>
+      <c r="F1160" t="inlineStr"/>
+      <c r="G1160" t="n">
+        <v>92196</v>
+      </c>
+      <c r="H1160" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1160" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1160" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1160" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1160" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1160" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1160" t="n">
+        <v>13</v>
+      </c>
+      <c r="O1160" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1160" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1160" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1160" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
